--- a/data/trans_orig/VUL_INSOM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en País Vasco</t>
+          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3531,7 +3531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en C.Valenciana</t>
+          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_INSOM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Edad-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>584</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>271</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>854</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>365</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62053</t>
+          <t>76150</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60975</t>
+          <t>75224</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62551</t>
+          <t>76518</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,27 +882,27 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62019</t>
+          <t>65971</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60555</t>
+          <t>65164</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124072</t>
+          <t>142122</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>122485</t>
+          <t>141074</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>124794</t>
+          <t>142611</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,75%</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -995,17 +995,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>275</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1087,12 +1087,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,32 +1112,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>745</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>226</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,32 +1147,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>442</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1190,27 +1190,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68573</t>
+          <t>74213</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67683</t>
+          <t>73444</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62459</t>
+          <t>68396</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61402</t>
+          <t>67554</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63071</t>
+          <t>68915</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>131032</t>
+          <t>142609</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>129728</t>
+          <t>141521</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131744</t>
+          <t>143187</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,69%</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1338,17 +1338,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1420,32 +1420,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,32 +1455,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,32 +1490,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>6545</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -1533,32 +1533,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93343</t>
+          <t>102002</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91873</t>
+          <t>100347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94147</t>
+          <t>103058</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,32 +1568,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95417</t>
+          <t>108835</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93660</t>
+          <t>107172</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96486</t>
+          <t>109782</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,32 +1603,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>188760</t>
+          <t>210837</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>186884</t>
+          <t>208674</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>190125</t>
+          <t>212346</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,66%</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1763,32 +1763,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5457</t>
+          <t>5953</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,32 +1798,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6611</t>
+          <t>6101</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>8730</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,32 +1833,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>10204</t>
+          <t>9945</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>7551</t>
+          <t>7387</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>12949</t>
+          <t>12527</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>134607</t>
+          <t>140573</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>132743</t>
+          <t>138465</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>135898</t>
+          <t>141939</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,32 +1911,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>131479</t>
+          <t>146355</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>129053</t>
+          <t>143726</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>133522</t>
+          <t>148100</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,32 +1946,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>266087</t>
+          <t>286929</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>263342</t>
+          <t>284347</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>268740</t>
+          <t>289487</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -1989,17 +1989,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2024,17 +2024,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2106,32 +2106,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8181</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,27 +2141,27 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9092</t>
+          <t>9160</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6895</t>
+          <t>6847</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11822</t>
+          <t>12255</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -2176,32 +2176,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14879</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>11723</t>
+          <t>11175</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18853</t>
+          <t>17803</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -2219,32 +2219,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>120419</t>
+          <t>124534</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>118026</t>
+          <t>122205</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>122350</t>
+          <t>125985</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,22 +2254,22 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>137613</t>
+          <t>142862</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>134883</t>
+          <t>139767</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>139810</t>
+          <t>145175</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,32 +2289,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>258032</t>
+          <t>267397</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>254058</t>
+          <t>263484</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>261188</t>
+          <t>270112</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>96,03%</t>
         </is>
       </c>
     </row>
@@ -2332,17 +2332,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2402,17 +2402,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2449,32 +2449,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7494</t>
+          <t>7523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5273</t>
+          <t>5675</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10277</t>
+          <t>10584</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2484,32 +2484,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14052</t>
+          <t>13542</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11360</t>
+          <t>10880</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17618</t>
+          <t>16590</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2519,32 +2519,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>21547</t>
+          <t>21065</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>18099</t>
+          <t>17731</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>25699</t>
+          <t>25059</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,38%</t>
         </is>
       </c>
     </row>
@@ -2562,32 +2562,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>99877</t>
+          <t>96816</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97094</t>
+          <t>93755</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>102098</t>
+          <t>98664</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2597,32 +2597,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>100982</t>
+          <t>102380</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>97416</t>
+          <t>99332</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>103674</t>
+          <t>105042</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2632,32 +2632,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>200857</t>
+          <t>199196</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>196705</t>
+          <t>195202</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>204305</t>
+          <t>202530</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>91,95%</t>
         </is>
       </c>
     </row>
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2710,17 +2710,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2745,17 +2745,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2792,22 +2792,22 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11251</t>
+          <t>10113</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8615</t>
+          <t>7979</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14386</t>
+          <t>12896</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2827,32 +2827,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27120</t>
+          <t>27279</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>23041</t>
+          <t>22981</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>31440</t>
+          <t>31054</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2862,32 +2862,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>38371</t>
+          <t>37393</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>33927</t>
+          <t>33191</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>43390</t>
+          <t>42359</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>19,17%</t>
         </is>
       </c>
     </row>
@@ -2905,27 +2905,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>84872</t>
+          <t>78973</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>81737</t>
+          <t>76190</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87508</t>
+          <t>81107</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>85,52%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -2940,32 +2940,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>106240</t>
+          <t>104548</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>101920</t>
+          <t>100773</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>110319</t>
+          <t>108846</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>76,42%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2975,32 +2975,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>191112</t>
+          <t>183520</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>186093</t>
+          <t>178554</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>195556</t>
+          <t>187722</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>83,07%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>81,09%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>84,98%</t>
         </is>
       </c>
     </row>
@@ -3018,17 +3018,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3053,17 +3053,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3088,17 +3088,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3135,32 +3135,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26148</t>
+          <t>24801</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36000</t>
+          <t>33608</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3170,32 +3170,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>60625</t>
+          <t>59302</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>54620</t>
+          <t>53503</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>67438</t>
+          <t>65706</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3205,32 +3205,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>91432</t>
+          <t>88549</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>84138</t>
+          <t>80531</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>100408</t>
+          <t>96070</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -3248,32 +3248,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>663743</t>
+          <t>693263</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>658550</t>
+          <t>688902</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>668402</t>
+          <t>697709</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3283,32 +3283,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>696208</t>
+          <t>739348</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>689395</t>
+          <t>732944</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>702213</t>
+          <t>745147</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3318,32 +3318,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1359951</t>
+          <t>1432611</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1350975</t>
+          <t>1425090</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1367245</t>
+          <t>1440629</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -3361,17 +3361,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3396,17 +3396,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3431,17 +3431,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">

--- a/data/trans_orig/VUL_INSOM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Edad-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,72 +729,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>344</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>323</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>926</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>5575</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76150</t>
+          <t>168918</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75224</t>
+          <t>166442</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76518</t>
+          <t>169827</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65971</t>
+          <t>169062</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65164</t>
+          <t>166334</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>170119</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>536</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>142122</t>
+          <t>337980</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>141074</t>
+          <t>335038</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142611</t>
+          <t>339687</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,73%</t>
         </is>
       </c>
     </row>
@@ -955,22 +955,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -990,22 +990,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1025,22 +1025,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>430</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1087,12 +1087,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>2167</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1102,77 +1102,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6907</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>745</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>1587</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>6993</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74213</t>
+          <t>181783</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73444</t>
+          <t>180046</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1220,72 +1220,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68396</t>
+          <t>209238</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>67554</t>
+          <t>204985</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68915</t>
+          <t>211128</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>600</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142609</t>
+          <t>391022</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>141521</t>
+          <t>387112</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143187</t>
+          <t>392955</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,71%</t>
         </is>
       </c>
     </row>
@@ -1298,22 +1298,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,22 +1368,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>605</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>714</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3832</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,67 +1455,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>3860</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3868</t>
+          <t>12856</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4382</t>
+          <t>9786</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>5843</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6545</t>
+          <t>15654</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -1528,107 +1528,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102002</t>
+          <t>246281</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100347</t>
+          <t>242644</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103058</t>
+          <t>248207</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>108835</t>
+          <t>240072</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>107172</t>
+          <t>234362</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109782</t>
+          <t>243358</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>780</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>210837</t>
+          <t>486353</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>208674</t>
+          <t>480485</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>212346</t>
+          <t>490296</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,82%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1711,22 +1711,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>797</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1758,107 +1758,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3845</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2049</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5953</t>
+          <t>10192</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6101</t>
+          <t>13264</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>8447</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8730</t>
+          <t>20638</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>9945</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>7387</t>
+          <t>11850</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>12527</t>
+          <t>25538</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1871,107 +1871,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>477</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>140573</t>
+          <t>292615</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>138465</t>
+          <t>286815</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141939</t>
+          <t>294958</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>436</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>146355</t>
+          <t>265694</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>143726</t>
+          <t>258320</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>148100</t>
+          <t>270511</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>913</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>286929</t>
+          <t>558309</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>284347</t>
+          <t>550427</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>289487</t>
+          <t>564115</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,94%</t>
         </is>
       </c>
     </row>
@@ -1984,22 +1984,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2054,22 +2054,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>575965</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>575965</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>575965</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2101,107 +2101,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8991</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14603</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3280</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7060</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9160</t>
+          <t>18985</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6847</t>
+          <t>13560</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12255</t>
+          <t>27557</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13890</t>
+          <t>27977</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>11175</t>
+          <t>19598</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17803</t>
+          <t>37709</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -2214,107 +2214,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>124534</t>
+          <t>225200</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>122205</t>
+          <t>219588</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>125985</t>
+          <t>229203</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>142862</t>
+          <t>235111</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>139767</t>
+          <t>226539</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>145175</t>
+          <t>240536</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>267397</t>
+          <t>460310</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>263484</t>
+          <t>450578</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>270112</t>
+          <t>468689</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>95,99%</t>
         </is>
       </c>
     </row>
@@ -2327,22 +2327,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2397,22 +2397,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>787</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2444,107 +2444,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7523</t>
+          <t>7234</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5675</t>
+          <t>4749</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10584</t>
+          <t>11025</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13542</t>
+          <t>18303</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10880</t>
+          <t>13894</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16590</t>
+          <t>23897</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>21065</t>
+          <t>25537</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17731</t>
+          <t>20395</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>25059</t>
+          <t>32542</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -2557,107 +2557,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>96816</t>
+          <t>176289</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>93755</t>
+          <t>172498</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>98664</t>
+          <t>178774</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>437</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>102380</t>
+          <t>170679</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99332</t>
+          <t>165085</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>105042</t>
+          <t>175088</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>979</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>199196</t>
+          <t>346968</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>195202</t>
+          <t>339963</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>202530</t>
+          <t>352110</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>91,26%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>94,53%</t>
         </is>
       </c>
     </row>
@@ -2670,22 +2670,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2705,22 +2705,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>487</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2740,22 +2740,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2787,107 +2787,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10113</t>
+          <t>12413</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7979</t>
+          <t>8909</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12896</t>
+          <t>16261</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27279</t>
+          <t>26106</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>22981</t>
+          <t>19878</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>31054</t>
+          <t>32205</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>115</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>37393</t>
+          <t>38519</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>33191</t>
+          <t>31876</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>42359</t>
+          <t>45627</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -2900,107 +2900,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>78973</t>
+          <t>134848</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>76190</t>
+          <t>131000</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>81107</t>
+          <t>138352</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>88,96%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>459</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>104548</t>
+          <t>186752</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100773</t>
+          <t>180653</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>108846</t>
+          <t>192980</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>899</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>183520</t>
+          <t>321600</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>178554</t>
+          <t>314492</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>187722</t>
+          <t>328243</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>83,07%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>84,98%</t>
+          <t>91,15%</t>
         </is>
       </c>
     </row>
@@ -3013,22 +3013,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3048,22 +3048,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>531</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3083,22 +3083,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3130,107 +3130,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>29247</t>
+          <t>37354</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>24801</t>
+          <t>30270</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33608</t>
+          <t>46563</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>59302</t>
+          <t>87837</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>53503</t>
+          <t>75914</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>65706</t>
+          <t>102790</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>294</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>88549</t>
+          <t>125191</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>80531</t>
+          <t>110505</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>96070</t>
+          <t>141288</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -3243,107 +3243,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>693263</t>
+          <t>1425934</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>688902</t>
+          <t>1416725</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>697709</t>
+          <t>1433018</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4121</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>739348</t>
+          <t>1476608</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>732944</t>
+          <t>1461655</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>745147</t>
+          <t>1488531</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>5448</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1432611</t>
+          <t>2902542</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1425090</t>
+          <t>2886445</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1440629</t>
+          <t>2917228</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>96,35%</t>
         </is>
       </c>
     </row>
@@ -3356,22 +3356,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>1463288</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>1463288</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>1463288</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3391,22 +3391,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3426,22 +3426,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>5742</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>3027733</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>3027733</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>3027733</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3531,7 +3531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
+          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3716,72 +3716,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>584</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>271</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3791,32 +3791,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>854</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>365</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>168918</t>
+          <t>76150</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>166442</t>
+          <t>75224</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>169827</t>
+          <t>76518</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>346</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>169062</t>
+          <t>65971</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>166334</t>
+          <t>65164</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>170119</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>717</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>337980</t>
+          <t>142122</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>335038</t>
+          <t>141074</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>339687</t>
+          <t>142611</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>99,75%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>275</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -4074,12 +4074,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2167</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -4089,77 +4089,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>745</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>226</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>442</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6993</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -4172,32 +4172,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>181783</t>
+          <t>74213</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>180046</t>
+          <t>73444</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4207,72 +4207,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>209238</t>
+          <t>68396</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>204985</t>
+          <t>67554</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>211128</t>
+          <t>68915</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>760</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>391022</t>
+          <t>142609</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>387112</t>
+          <t>141521</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>392955</t>
+          <t>143187</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,69%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4402,37 +4402,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4442,67 +4442,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7146</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3860</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12856</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9786</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15654</t>
+          <t>6545</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>246281</t>
+          <t>102002</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>242644</t>
+          <t>100347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>248207</t>
+          <t>103058</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>569</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>240072</t>
+          <t>108835</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>234362</t>
+          <t>107172</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>243358</t>
+          <t>109782</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>486353</t>
+          <t>210837</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>480485</t>
+          <t>208674</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>490296</t>
+          <t>212346</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,66%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10192</t>
+          <t>5953</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13264</t>
+          <t>6101</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8447</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20638</t>
+          <t>8730</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>9945</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11850</t>
+          <t>7387</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>25538</t>
+          <t>12527</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>777</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>292615</t>
+          <t>140573</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>286815</t>
+          <t>138465</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>294958</t>
+          <t>141939</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>775</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>265694</t>
+          <t>146355</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>258320</t>
+          <t>143726</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>270511</t>
+          <t>148100</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>558309</t>
+          <t>286929</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>550427</t>
+          <t>284347</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>564115</t>
+          <t>289487</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>799</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575965</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575965</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575965</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8991</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14603</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18985</t>
+          <t>9160</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13560</t>
+          <t>6847</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27557</t>
+          <t>12255</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>27977</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>19598</t>
+          <t>11175</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>37709</t>
+          <t>17803</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>225200</t>
+          <t>124534</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>219588</t>
+          <t>122205</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>229203</t>
+          <t>125985</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>805</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>235111</t>
+          <t>142862</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>226539</t>
+          <t>139767</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>240536</t>
+          <t>145175</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>460310</t>
+          <t>267397</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>450578</t>
+          <t>263484</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>468689</t>
+          <t>270112</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,03%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>857</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7234</t>
+          <t>7523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4749</t>
+          <t>5675</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11025</t>
+          <t>10584</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18303</t>
+          <t>13542</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13894</t>
+          <t>10880</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23897</t>
+          <t>16590</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>25537</t>
+          <t>21065</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20395</t>
+          <t>17731</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>32542</t>
+          <t>25059</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>11,38%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>176289</t>
+          <t>96816</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>172498</t>
+          <t>93755</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>178774</t>
+          <t>98664</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>621</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>170679</t>
+          <t>102380</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>165085</t>
+          <t>99332</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>175088</t>
+          <t>105042</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>346968</t>
+          <t>199196</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>339963</t>
+          <t>195202</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>352110</t>
+          <t>202530</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>91,95%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>704</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5774,107 +5774,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12413</t>
+          <t>10113</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8909</t>
+          <t>7979</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16261</t>
+          <t>12896</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26106</t>
+          <t>27279</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>19878</t>
+          <t>22981</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>32205</t>
+          <t>31054</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>228</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>38519</t>
+          <t>37393</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>31876</t>
+          <t>33191</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>45627</t>
+          <t>42359</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>19,17%</t>
         </is>
       </c>
     </row>
@@ -5887,107 +5887,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>134848</t>
+          <t>78973</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>131000</t>
+          <t>76190</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>138352</t>
+          <t>81107</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,96%</t>
+          <t>85,52%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>638</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>186752</t>
+          <t>104548</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>180653</t>
+          <t>100773</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>192980</t>
+          <t>108846</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>321600</t>
+          <t>183520</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>314492</t>
+          <t>178554</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>328243</t>
+          <t>187722</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>83,07%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>84,98%</t>
         </is>
       </c>
     </row>
@@ -6000,22 +6000,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6035,22 +6035,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>801</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6070,22 +6070,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6117,107 +6117,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>37354</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>30270</t>
+          <t>24801</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>46563</t>
+          <t>33608</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>355</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>87837</t>
+          <t>59302</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>75914</t>
+          <t>53503</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>102790</t>
+          <t>65706</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>533</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>125191</t>
+          <t>88549</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>110505</t>
+          <t>80531</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>141288</t>
+          <t>96070</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -6230,107 +6230,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1425934</t>
+          <t>693263</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1416725</t>
+          <t>688902</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1433018</t>
+          <t>697709</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1476608</t>
+          <t>739348</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1461655</t>
+          <t>732944</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1488531</t>
+          <t>745147</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5448</t>
+          <t>8010</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2902542</t>
+          <t>1432611</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2886445</t>
+          <t>1425090</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2917228</t>
+          <t>1440629</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -6343,22 +6343,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1463288</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1463288</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1463288</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6378,22 +6378,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6413,22 +6413,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5742</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027733</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027733</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027733</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
